--- a/패치플로우.xlsx
+++ b/패치플로우.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuzhu_work\Project\iPhone_zero\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="9675" windowHeight="10770"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>리소스패치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +140,57 @@
   </si>
   <si>
     <t>linux -&gt; 154(windows): /share폴더로 카피(scp?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193서버 desktop/caribe_patch 폴더로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193서버 원격접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extrackt.exe, MakePackage.exe PatchTool.exe를 차례로 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Resource/AutoCopyForPatch.bat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(리소스 선별카피 &amp; 193서버로 전송)</t>
+  </si>
+  <si>
+    <t>유저리소스 패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\inetpub\wwwroot\Caribe\Update/linux로_복사.bat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 서버를 경유해서 GMO서버의 share폴더에 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMO서버 원격접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share폴더로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저_리소스 패치.bat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMO서버의 wwwroot/caribe/update로 패치파일들 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로 패치 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +222,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,12 +248,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -189,11 +291,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +331,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,139 +626,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I7:T27"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I7" s="1" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I8" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I9" s="1" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I10" s="1" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I11" s="1" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I12" s="1" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I13" s="1" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I14" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M22" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M23" s="1" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="1" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N25" s="1" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N26" s="1" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="N27" s="1" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>3</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>4</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>5</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>7</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>8</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>9</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/패치플로우.xlsx
+++ b/패치플로우.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>리소스패치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,58 @@
   </si>
   <si>
     <t>클라이언트로 패치 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버앱 패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젠킨스 실행(193번서버의…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 소스 GIT-master에 commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료되면 실행파일이 GMO서버의 share폴더로 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMO서버 접속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktop/share폴더 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버앱패치.bat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백업은 자동으로 이뤄진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버리소스 패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resouce/서버패치용_카피.bat 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버앱에 필요한 리소스를 GMO/share폴더에 업로드 한다.(리눅스 경유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버리소스패치.bat 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +284,15 @@
     </font>
     <font>
       <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -291,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,9 +368,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +387,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1073,89 +1149,206 @@
       <c r="P22" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>2</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
         <v>3</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>4</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>5</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>6</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
         <v>7</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>8</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+    <row r="48" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>9</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>2</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>3</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>4</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>5</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>6</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>1</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>3</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>4</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/패치플로우.xlsx
+++ b/패치플로우.xlsx
@@ -705,7 +705,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
